--- a/output.xlsx
+++ b/output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C.E. Devers</t>
+          <t>Phil Thompson’s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gamache, D.L., Devers, C.E., Klein, F.B, &amp; Hannigan, T. (2023) Shifting perspectives: How scrutiny shapes the relationship between CEO gender and acquisition activity, Strategic Management Journal 44: 3012-3041.</t>
+          <t>Thompson, P.S., Bolino, M.C., Norris, K.R.*, &amp; Kuo, S-T*. (In Press). Unconstructive curiosity killed the cat: The importance of follower political skill and constructive curiosity. Organizational Behavior and Human Decision Processes https://doi.org/10.1016/j.obhdp.2023.104275.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gamache, D.L., Devers, C.E., Klein, F.B,, Hannigan, T.</t>
+          <t>Thompson, P.S., Bolino, M.C., Norris, K.R.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -491,108 +491,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Shifting perspectives: How scrutiny shapes the relationship between CEO gender and acquisition activity</t>
+          <t>Kuo, S-T*. (In Press). Unconstructive curiosity killed the cat: The importance of follower political skill and constructive curiosity</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Strategic Management Journal 44: 3012-3041</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C.E. Devers</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mah, J., Kolev, K., McNamara, G., Pan., L. &amp; Devers, C.E. (2023) Women in the C-suite: A review and agenda of the challenges, opportunities, and impact of female top executives. In press. Academy of Management Annals 17: 586-625.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mah, J., Kolev, K., McNamara, G., Devers, C.E.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Women in the C-suite: A review and agenda of the challenges, opportunities, and impact of female top executives. In press</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Academy of Management Annals 17: 586-625</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>C.E. Devers</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gabriel, A.S., Allen, T.D., Devers, C.E., Eby, L.T., Gilson, L.L., Hebl, M., Kehoe, R.R. King, E.B., Ladge, J.J, Little, L.M., Schleicher, D.J., Shockey, K.M., Klotz, A.C., &amp; Rosen, C.C. (2023) A call to action: The imperative of supporting women scholars who have caregiving demands, Focal article: Industrial and Organizational Psychology, 16: 187-210.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gabriel, A.S., Allen, T.D., Devers, C.E., Eby, L.T., Gilson, L.L., Hebl, M., Kehoe, R.R., King, E.B., Ladge, J.J,, Little, L.M., Schleicher, D.J., Shockey, K.M., Klotz, A.C., Rosen, C.C.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>A call to action: The imperative of supporting women scholars who have caregiving demands</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Focal article: Industrial and Organizational Psychology</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Devi Gnyawali</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rai, R., Gnyawali, D.R., &amp; Bhatt, H. 2023. Walking the Tightrope: Coopetition Capability Construct and its Role in Value Creation. Journal of Management, 49, 7: 2354-2386.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Rai, R., Gnyawali, D.R., Bhatt, H.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Walking the Tightrope: Coopetition Capability Construct and its Role in Value Creation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Journal of Management</t>
+          <t>Organizational Behavior and Human Decision Processes https://doi</t>
         </is>
       </c>
     </row>
@@ -607,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,17 +554,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C.E. Devers</t>
+          <t>Phil Thompson’s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yonish, L., Raney, K., Devers, C.E., Bundy, J. (2023). No Room for Redemption: Toward an Understanding of Cancellation as an Organizational Phenomenon. Annual Meeting of the Academy of Management.</t>
+          <t>Brooks, R.*, Thompson, P.S., &amp; Bolino, M.C. (2023, August). Perceived organizational support for social justice initiatives. In Young Eun Lee &amp; Katrina Jin Lin’s (Chair’s) Symposia, “Rethinking Organizational Citizenship Behavior” Symposium presented at the annual meeting of the Academy of Management, Boston, Massachusetts. Showcase Symposium.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yonish, L., Raney, K., Devers, C.E., Bundy, J.</t>
+          <t>Brooks, R., Thompson, P.S., Bolino, M.C.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -670,29 +574,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No Room for Redemption: Toward an Understanding of Cancellation as an Organizational Phenomenon</t>
+          <t>August). Perceived organizational support for social justice initiatives. In Young Eun Lee &amp; Katrina Jin Lin’s (Chair’s) Symposia, “Rethinking Organizational Citizenship Behavior” Symposium presented at the annual meeting of the Academy of Management, Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Annual Meeting of the Academy of Management</t>
+          <t>Showcase Symposium</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>C.E. Devers</t>
+          <t>Phil Thompson’s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Devers, C.E. (2023) Keynote speaker at the Pamplin Graduate Student Orientation.</t>
+          <t>Keleman, T., Matthews, S.H., Matthews, M.J.*, Bolino, M.C., &amp; Thompson, P.S. (August, 2023) Good soldiers, good actors, and good learners? Self-improvement as a motive for OCB. Paper presented at the annual meeting of the Academy of Management, Boston, Massachusetts. Showcase Symposium.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Devers, C.E.</t>
+          <t>Keleman, T., Matthews, S.H., Matthews, M.J., Bolino, M.C., Thompson, P.S.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -700,27 +604,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>August, ) Good soldiers, good actors, and good learners? Self-improvement as a motive for OCB. Paper presented at the annual meeting of the Academy of Management, Boston, Massachusetts</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Keynote speaker at the Pamplin Graduate Student Orientation</t>
+          <t>Showcase Symposium</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Devi Gnyawali</t>
+          <t>Phil Thompson’s</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gnyawali, D.R. “Managing Interdependence in Strategic Alliances”. Presented at a Symposium at the 2023 International Conference of the Strategic Management Society, Toronto, Canada.</t>
+          <t>Grantham, C.L.*, Klotz, A.C., &amp; Thompson, P.S. (2023, June). Will I follow you into the dark? The relationship between follower deference orientation and unethical pro-leader behaviors. Paper presented at the annual meeting of the Society for the Psychological Study of Social Issues (SPSSI), Denver, CO.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gnyawali, D.R.</t>
+          <t>Grantham, C.L., Klotz, A.C., Thompson, P.S.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -730,44 +638,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Managing Interdependence in Strategic Alliances</t>
+          <t>June). Will I follow you into the dark? The relationship between follower deference orientation and unethical pro-leader behaviors</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Presented at a Symposium at the  International Conference of the Strategic Management Society</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Devi Gnyawali</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Roehrich, J., Squire, B., Taubeneder, R., Tyler, B., &amp; Gnyawali, D.R. 2023. “Managing Coopetition in a Multiparty Supplier Alliance”. 2023 Academy of Management Conference, Boston.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Roehrich, J., Squire, B., Taubeneder, R., Tyler, B., Gnyawali, D.R.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Managing Coopetition in a Multiparty Supplier Alliance</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023 Academy of Management Conference</t>
+          <t>Paper presented at the annual meeting of the Society for the Psychological Study of Social Issues (SPSSI</t>
         </is>
       </c>
     </row>
@@ -833,7 +709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,98 +749,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C.E. Devers</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gamache, D.L., Devers, C.E., Klein, F.B, &amp; Hannigan, T. (2023) Shifting perspectives: How scrutiny shapes the relationship between CEO gender and acquisition activity, Strategic Management Journal 44: 3012-3041.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Gamache, D.L., Devers, C.E., Klein, F.B,, Hannigan, T.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Shifting perspectives: How scrutiny shapes the relationship between CEO gender and acquisition activity</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Strategic Management Journal 44: 3012-3041</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C.E. Devers</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Devers, C.E. (2023) Keynote speaker at the Pamplin Graduate Student Orientation.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Devers, C.E.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Keynote speaker at the Pamplin Graduate Student Orientation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Devi Gnyawali</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Rai, R., Gnyawali, D.R., &amp; Bhatt, H. 2023. Walking the Tightrope: Coopetition Capability Construct and its Role in Value Creation. Journal of Management, 49, 7: 2354-2386.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Rai, R., Gnyawali, D.R., Bhatt, H.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Walking the Tightrope: Coopetition Capability Construct and its Role in Value Creation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Journal of Management</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
